--- a/biology/Botanique/Culture_du_bonsaï/Culture_du_bonsaï.xlsx
+++ b/biology/Botanique/Culture_du_bonsaï/Culture_du_bonsaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Culture_du_bonsa%C3%AF</t>
+          <t>Culture_du_bonsaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture du bonsaï inclut l'éclairage, le rempotage, la taille et l'arrosage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Culture_du_bonsa%C3%AF</t>
+          <t>Culture_du_bonsaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>La culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque espèce de bonsaï a des besoins différents.  Les pins affectionnent le plein soleil, certains érables le redoutent.
 Certaines espèces de bonsaï, comme les azalées japonaises habituées à un climat doux, doivent être rentrés dans un local frais et clair pour l'hiver lorsqu'elles sont cultivées sous des climats plus rustiques.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Culture_du_bonsa%C3%AF</t>
+          <t>Culture_du_bonsaï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,20 +566,12 @@
           <t>L'éclairage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de bonsaï élevées en intérieur sont généralement originaires de régions chaudes et ensoleillées et nécessitent donc un maximum de lumière. C'est pourquoi il faut que l'arbre soit situé le plus proche possible d'une fenêtre (moins d'un mètre). En effet, le verre filtre la lumière et l'énergie lumineuse diminue rapidement, sachant qu'un simple vitrage peut déjà réduire de moitié l'énergie disponible. 
 Pour pallier le manque d'éclairage lors des journées courtes de l'hiver, un éclairage d'appoint peut être installé en complément de la lumière naturelle. Il faut pour cela se procurer une lampe ou un néon d'aquarium avec une température de couleur de 6 500 K (couleur blanche très vive) qui stimulera la photosynthèse. L'éclairage artificiel doit durer de 12 h à 18 h par jour. C'est pourquoi, pour des raisons économiques, il est très intéressant de se procurer des lampes fluorescentes à basse consommation d'énergie d'environ 20 W (1200 lumens environ) qui équivalent à des lampes classiques de 100 W. Il peut être utile de relier le système à un programmateur pour que l'éclairage s'effectue tous les jours aux mêmes heures.
-Ombre claire
-Pour les azalées et rhododendrons, camélias, bambous et érables du Japon, ormes, hêtres
-Ombre vraie
-Pour les sujets précédents au cours des mois de juillet et août.
-Soleil le matin
-(lumière du jour abondante du lever du soleil jusque vers 14-15 heures)
-Cotonéasters, arbres feuillus européens, camélias et même azalées.
-Vraie exposition sud
-On peut opter pour l'exposition plein sud pour toutes les espèces de bonsaïs entre février et avril, en leur garantissant toujours une position 'hors-gel'. Un abri filtrant à claire-voie peut être nécessaire en mai-juin ou en septembre[1].
-Cerisiers et glycines ont besoin de beaucoup de lumière pour pouvoir correctement fleurir. Le manque de lumière se traduit généralement par l'étiolement de leur feuillage.
 </t>
         </is>
       </c>
@@ -576,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Culture_du_bonsa%C3%AF</t>
+          <t>Culture_du_bonsaï</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,13 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Le rempotage et le substrat</t>
+          <t>L'éclairage</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un rempotage des bonsaï s'avère nécessaire tous les deux à trois ans suivant l'espèce. Il s'effectue dans la majorité des cas entre avril et juin (se référer à la fiche espèce correspondante pour plus de précisions). Son substrat se doit d'être drainant afin d'éviter une trop grande rétention d'eau au fond du pot et ainsi d'empêcher la moisissure des racines. Pour cela il est recommandé d'utiliser de l'akadama, de la pouzzolane, de la pumice (également connue sous le nom de « pierre ponce ») et du sable grossier aux proportions différentes selon les espèces. Il n'existe pas de mélange idéal et chaque adepte de bonsaï a sa propre recette forgée sur son expérience personnelle. Il n'est pas forcément conseillé d'utiliser les terreaux "spécial bonsaï" vendus en France dans les grandes jardineries, qui malgré leur nom ne conviennent pas toujours à la culture de bonsaï. 
-Tableau récapitulatif des rempotages
+          <t>Ombre claire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les azalées et rhododendrons, camélias, bambous et érables du Japon, ormes, hêtres
 </t>
         </is>
       </c>
@@ -608,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Culture_du_bonsa%C3%AF</t>
+          <t>Culture_du_bonsaï</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,10 +634,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>L'éclairage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ombre vraie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les sujets précédents au cours des mois de juillet et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L'éclairage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Soleil le matin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(lumière du jour abondante du lever du soleil jusque vers 14-15 heures)
+Cotonéasters, arbres feuillus européens, camélias et même azalées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'éclairage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vraie exposition sud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut opter pour l'exposition plein sud pour toutes les espèces de bonsaïs entre février et avril, en leur garantissant toujours une position 'hors-gel'. Un abri filtrant à claire-voie peut être nécessaire en mai-juin ou en septembre.
+Cerisiers et glycines ont besoin de beaucoup de lumière pour pouvoir correctement fleurir. Le manque de lumière se traduit généralement par l'étiolement de leur feuillage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le rempotage et le substrat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un rempotage des bonsaï s'avère nécessaire tous les deux à trois ans suivant l'espèce. Il s'effectue dans la majorité des cas entre avril et juin (se référer à la fiche espèce correspondante pour plus de précisions). Son substrat se doit d'être drainant afin d'éviter une trop grande rétention d'eau au fond du pot et ainsi d'empêcher la moisissure des racines. Pour cela il est recommandé d'utiliser de l'akadama, de la pouzzolane, de la pumice (également connue sous le nom de « pierre ponce ») et du sable grossier aux proportions différentes selon les espèces. Il n'existe pas de mélange idéal et chaque adepte de bonsaï a sa propre recette forgée sur son expérience personnelle. Il n'est pas forcément conseillé d'utiliser les terreaux "spécial bonsaï" vendus en France dans les grandes jardineries, qui malgré leur nom ne conviennent pas toujours à la culture de bonsaï. 
+Tableau récapitulatif des rempotages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>La taille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bonsaïs doivent être taillés au niveau des branches et des feuilles, lors de leur pousse, mais aussi au niveau des racines, lors du rempotage.
 On peut distinguer 2 types de taille : d'une part, la taille d'entretien qui permet au bonsaï de garder sa forme générale (en coupant "ce qui dépasse") et, d'autre part, la taille de structure qui donne au bonsaï sa forme particulière.
@@ -643,57 +803,61 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Culture_du_bonsa%C3%AF</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>La ligature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Culture_du_bonsa%C3%AF</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Culture_du_bonsaï</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_bonsa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L'arrosage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arrosage quotidien est conseillé. 
 Il est aussi recommandé de la faire autant qu'il se peut sans alourdir la terre, par gouttelettes, en plongeant le fond du pot dans un bac d'eau, l'usage d'un petit arrosoir ou vaporisateur trouve ici son utilité. 
